--- a/Files/Madden24/IE/Test/Player_VoidYears.xlsx
+++ b/Files/Madden24/IE/Test/Player_VoidYears.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:I157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,25 +446,35 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Position</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ContractLength</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>ContractYear</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>HasVoidYears</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>VoidYears</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>WhenVoid</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>VoidThisYear</t>
         </is>
@@ -473,55 +483,5461 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Davante</t>
+          <t>Nelson</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Adams</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
+          <t>Agholor</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Jaire</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Alexander</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Brian</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Allen</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Zach</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Allen</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Azeez</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Al-Shaair</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MLB</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Anzalone</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ROLB</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Arik</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Armstead</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Derek</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Barnett</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>RE</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Shaquil</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Barrett</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>RE</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bates</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Odell</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Beckham Jr</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Joel</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Bitonio</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>LG</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>7</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Bosa</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>RE</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>7</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Bradberry IV</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A.J.</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>6</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Trent</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Kevin</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Byard</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>FS</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>D.J.</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Chark Jr</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Kenny</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Clark</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Jack</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Conklin</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>6</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Conklin</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>4</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Brandin</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Cooks</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Amari</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Cooper</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Austin</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Corbett</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>RG</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Kirk</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Cousins</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>QB</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Fletcher</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Cox</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Marcus</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Davenport</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>RE</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Lavonte</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>ROLB</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Carlton</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Davis III</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>4</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3</v>
+      </c>
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Demario</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>MLB</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>4</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3</v>
+      </c>
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Dion</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Dawkins</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>6</v>
+      </c>
+      <c r="E32" t="n">
+        <v>5</v>
+      </c>
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Decker</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>6</v>
+      </c>
+      <c r="E33" t="n">
+        <v>5</v>
+      </c>
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Andre</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Dillard</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>4</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Aaron</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Donald</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>4</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3</v>
+      </c>
+      <c r="F35" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Rasul</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Douglas</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>4</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3</v>
+      </c>
+      <c r="F36" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Gus</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Edwards</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>HB</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>4</v>
+      </c>
+      <c r="E37" t="n">
+        <v>4</v>
+      </c>
+      <c r="F37" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+      <c r="I37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Jake</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Elliott</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>7</v>
+      </c>
+      <c r="E38" t="n">
+        <v>6</v>
+      </c>
+      <c r="F38" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Evan</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Engram</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>4</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Zach</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Ertz</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>4</v>
+      </c>
+      <c r="E40" t="n">
+        <v>3</v>
+      </c>
+      <c r="F40" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Mike</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Evans</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>4</v>
+      </c>
+      <c r="E41" t="n">
+        <v>3</v>
+      </c>
+      <c r="F41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Folorunso</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Fatukasi</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>4</v>
+      </c>
+      <c r="E42" t="n">
+        <v>3</v>
+      </c>
+      <c r="F42" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Franklin-Myers</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>6</v>
+      </c>
+      <c r="E43" t="n">
+        <v>4</v>
+      </c>
+      <c r="F43" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Gaines</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>2</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2</v>
+      </c>
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>C.J.</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Gardner-Johnson</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>FS</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>2</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Jimmy</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Garoppolo</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>QB</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>4</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2</v>
+      </c>
+      <c r="F46" t="b">
+        <v>1</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Chris</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Godwin</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>4</v>
+      </c>
+      <c r="E47" t="n">
+        <v>3</v>
+      </c>
+      <c r="F47" t="b">
+        <v>1</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Dallas</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Goedert</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>7</v>
+      </c>
+      <c r="E48" t="n">
+        <v>4</v>
+      </c>
+      <c r="F48" t="b">
+        <v>1</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Dre</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Greenlaw</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>ROLB</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>4</v>
+      </c>
+      <c r="E49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F49" t="b">
+        <v>1</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>DaVon</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Hamilton</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>5</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2</v>
+      </c>
+      <c r="F50" t="b">
+        <v>1</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Javon</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Hargrave</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>5</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2</v>
+      </c>
+      <c r="F51" t="b">
+        <v>1</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Rob</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Havenstein</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>3</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2</v>
+      </c>
+      <c r="F52" t="b">
+        <v>1</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Derrick</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Henry</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>HB</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>5</v>
+      </c>
+      <c r="E53" t="n">
+        <v>5</v>
+      </c>
+      <c r="F53" t="b">
+        <v>1</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Higbee</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>4</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2</v>
+      </c>
+      <c r="F54" t="b">
+        <v>1</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Taysom</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Hill</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>6</v>
+      </c>
+      <c r="E55" t="n">
+        <v>4</v>
+      </c>
+      <c r="F55" t="b">
+        <v>1</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>DeAndre</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Hopkins</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>3</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2</v>
+      </c>
+      <c r="F56" t="b">
+        <v>1</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Justin</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>2</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2</v>
+      </c>
+      <c r="F57" t="b">
+        <v>1</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Jerry</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Hughes Jr</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>3</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3</v>
+      </c>
+      <c r="F58" t="b">
+        <v>1</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+      <c r="I58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Danielle</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Hunter</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>2</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2</v>
+      </c>
+      <c r="F59" t="b">
+        <v>1</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Hurst</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>LG</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>3</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3</v>
+      </c>
+      <c r="F60" t="b">
+        <v>1</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Jalen</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Hurts</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>QB</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>7</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2</v>
+      </c>
+      <c r="F61" t="b">
+        <v>1</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+      <c r="I61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Micah</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Hyde</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>FS</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>4</v>
+      </c>
+      <c r="E62" t="n">
+        <v>4</v>
+      </c>
+      <c r="F62" t="b">
+        <v>1</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+      <c r="I62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Adoree'</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Jackson</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>4</v>
+      </c>
+      <c r="E63" t="n">
+        <v>4</v>
+      </c>
+      <c r="F63" t="b">
+        <v>1</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+      <c r="I63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Donte</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Jackson</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>4</v>
+      </c>
+      <c r="E64" t="n">
+        <v>3</v>
+      </c>
+      <c r="F64" t="b">
+        <v>1</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+      <c r="I64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Eddie</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Jackson</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>FS</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>6</v>
+      </c>
+      <c r="E65" t="n">
+        <v>5</v>
+      </c>
+      <c r="F65" t="b">
+        <v>1</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+      <c r="I65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Lamar</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Jackson</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>QB</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>6</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2</v>
+      </c>
+      <c r="F66" t="b">
+        <v>1</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+      <c r="I66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Rayshawn</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Jenkins</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>5</v>
+      </c>
+      <c r="E67" t="n">
+        <v>4</v>
+      </c>
+      <c r="F67" t="b">
+        <v>1</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+      <c r="I67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Jensen</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>5</v>
+      </c>
+      <c r="E68" t="n">
+        <v>3</v>
+      </c>
+      <c r="F68" t="b">
+        <v>1</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+      <c r="I68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Juwan</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>3</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2</v>
+      </c>
+      <c r="F69" t="b">
+        <v>1</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+      <c r="I69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Lane</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>7</v>
+      </c>
+      <c r="E70" t="n">
+        <v>2</v>
+      </c>
+      <c r="F70" t="b">
+        <v>1</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+      <c r="I70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Aaron</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>HB</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>5</v>
+      </c>
+      <c r="E71" t="n">
+        <v>4</v>
+      </c>
+      <c r="F71" t="b">
+        <v>1</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+      <c r="I71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Chris</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>5</v>
+      </c>
+      <c r="E72" t="n">
+        <v>5</v>
+      </c>
+      <c r="F72" t="b">
+        <v>1</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+      <c r="I72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>DaQuan</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>3</v>
+      </c>
+      <c r="E73" t="n">
+        <v>3</v>
+      </c>
+      <c r="F73" t="b">
+        <v>1</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+      <c r="I73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Zay</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>4</v>
+      </c>
+      <c r="E74" t="n">
+        <v>3</v>
+      </c>
+      <c r="F74" t="b">
+        <v>1</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+      <c r="I74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Cameron</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Jordan</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>4</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2</v>
+      </c>
+      <c r="F75" t="b">
+        <v>1</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+      <c r="I75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Matthew</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Judon</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>3</v>
+      </c>
+      <c r="E76" t="n">
+        <v>2</v>
+      </c>
+      <c r="F76" t="b">
+        <v>1</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+      <c r="I76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Alvin</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Kamara</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>HB</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>4</v>
+      </c>
+      <c r="E77" t="n">
+        <v>2</v>
+      </c>
+      <c r="F77" t="b">
+        <v>1</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1</v>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+      <c r="I77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Jason</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Kelce</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>4</v>
+      </c>
+      <c r="E78" t="n">
+        <v>2</v>
+      </c>
+      <c r="F78" t="b">
+        <v>1</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Arden</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Key</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>4</v>
+      </c>
+      <c r="E79" t="n">
+        <v>2</v>
+      </c>
+      <c r="F79" t="b">
+        <v>1</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1</v>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+      <c r="I79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Christian</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Kirk</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>5</v>
+      </c>
+      <c r="E80" t="n">
+        <v>3</v>
+      </c>
+      <c r="F80" t="b">
+        <v>1</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1</v>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+      <c r="I80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>George</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Kittle</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>5</v>
+      </c>
+      <c r="E81" t="n">
+        <v>3</v>
+      </c>
+      <c r="F81" t="b">
+        <v>1</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+      <c r="I81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Marshon</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Lattimore</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>7</v>
+      </c>
+      <c r="E82" t="n">
+        <v>4</v>
+      </c>
+      <c r="F82" t="b">
+        <v>1</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1</v>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+      <c r="I82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>DeMarcus</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Lawrence</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>4</v>
+      </c>
+      <c r="E83" t="n">
+        <v>3</v>
+      </c>
+      <c r="F83" t="b">
+        <v>1</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+      <c r="I83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Carl</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Lawson</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>RE</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>2</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2</v>
+      </c>
+      <c r="F84" t="b">
+        <v>1</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+      <c r="I84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Allen</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Lazard</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>5</v>
+      </c>
+      <c r="E85" t="n">
+        <v>2</v>
+      </c>
+      <c r="F85" t="b">
+        <v>1</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1</v>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+      <c r="I85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Charles</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Leno Jr</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>5</v>
+      </c>
+      <c r="E86" t="n">
+        <v>4</v>
+      </c>
+      <c r="F86" t="b">
+        <v>1</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+      <c r="I86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Jordan</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Love</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>QB</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>3</v>
+      </c>
+      <c r="E87" t="n">
+        <v>2</v>
+      </c>
+      <c r="F87" t="b">
+        <v>1</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+      <c r="I87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Dean</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Lowry</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>3</v>
+      </c>
+      <c r="E88" t="n">
+        <v>2</v>
+      </c>
+      <c r="F88" t="b">
+        <v>1</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+      <c r="I88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Avonte</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Maddox</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>5</v>
+      </c>
+      <c r="E89" t="n">
+        <v>4</v>
+      </c>
+      <c r="F89" t="b">
+        <v>1</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1</v>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+      <c r="I89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Jordan</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Mailata</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>7</v>
+      </c>
+      <c r="E90" t="n">
+        <v>4</v>
+      </c>
+      <c r="F90" t="b">
+        <v>1</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+      <c r="I90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Zack</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>RG</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>3</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2</v>
+      </c>
+      <c r="F91" t="b">
+        <v>1</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+      <c r="I91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Tyrann</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Mathieu</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>FS</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>5</v>
+      </c>
+      <c r="E92" t="n">
+        <v>3</v>
+      </c>
+      <c r="F92" t="b">
+        <v>1</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+      <c r="I92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Marcus</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Maye</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>4</v>
+      </c>
+      <c r="E93" t="n">
+        <v>3</v>
+      </c>
+      <c r="F93" t="b">
+        <v>1</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+      <c r="I93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Baker</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Mayfield</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>QB</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>2</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2</v>
+      </c>
+      <c r="F94" t="b">
+        <v>1</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+      <c r="I94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Christian</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>McCaffrey</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>HB</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>5</v>
+      </c>
+      <c r="E95" t="n">
+        <v>3</v>
+      </c>
+      <c r="F95" t="b">
+        <v>1</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1</v>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+      <c r="I95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Connor</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>McGovern</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>LG</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>4</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2</v>
+      </c>
+      <c r="F96" t="b">
+        <v>1</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1</v>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+      <c r="I96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Terry</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>McLaurin</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>5</v>
+      </c>
+      <c r="E97" t="n">
+        <v>3</v>
+      </c>
+      <c r="F97" t="b">
+        <v>1</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1</v>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+      <c r="I97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Matt</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Milano</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>ROLB</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>5</v>
+      </c>
+      <c r="E98" t="n">
+        <v>2</v>
+      </c>
+      <c r="F98" t="b">
+        <v>1</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1</v>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+      <c r="I98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Montgomery</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>HB</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>4</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2</v>
+      </c>
+      <c r="F99" t="b">
+        <v>1</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1</v>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+      <c r="I99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>C.J.</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Mosley</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>MLB</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>6</v>
+      </c>
+      <c r="E100" t="n">
+        <v>5</v>
+      </c>
+      <c r="F100" t="b">
+        <v>1</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+      <c r="I100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Byron</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Murphy Jr</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>3</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2</v>
+      </c>
+      <c r="F101" t="b">
+        <v>1</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1</v>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+      <c r="I101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Anthony</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Nelson</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>RE</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>3</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2</v>
+      </c>
+      <c r="F102" t="b">
+        <v>1</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1</v>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+      <c r="I102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Keisean</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Nixon</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>2</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2</v>
+      </c>
+      <c r="F103" t="b">
+        <v>1</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+      <c r="I103" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Njoku</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>6</v>
+      </c>
+      <c r="E104" t="n">
+        <v>3</v>
+      </c>
+      <c r="F104" t="b">
+        <v>1</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1</v>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+      <c r="I104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Noteboom</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>4</v>
+      </c>
+      <c r="E105" t="n">
+        <v>3</v>
+      </c>
+      <c r="F105" t="b">
+        <v>1</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1</v>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+      <c r="I105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Ogbonnia</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Okoronkwo</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>RE</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>4</v>
+      </c>
+      <c r="E106" t="n">
+        <v>2</v>
+      </c>
+      <c r="F106" t="b">
+        <v>1</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1</v>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+      <c r="I106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Romeo</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Okwara</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>4</v>
+      </c>
+      <c r="E107" t="n">
+        <v>4</v>
+      </c>
+      <c r="F107" t="b">
+        <v>1</v>
+      </c>
+      <c r="G107" t="n">
+        <v>1</v>
+      </c>
+      <c r="H107" t="n">
+        <v>3</v>
+      </c>
+      <c r="I107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
           <t>Josh</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Allen</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Oliver</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>4</v>
+      </c>
+      <c r="E108" t="n">
+        <v>2</v>
+      </c>
+      <c r="F108" t="b">
+        <v>1</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1</v>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+      <c r="I108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Foyesade</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Oluokun</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>MLB</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>4</v>
+      </c>
+      <c r="E109" t="n">
+        <v>3</v>
+      </c>
+      <c r="F109" t="b">
+        <v>1</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1</v>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+      <c r="I109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Da'Ron</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Payne</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
         <v>5</v>
       </c>
-      <c r="G3" t="b">
-        <v>0</v>
+      <c r="E110" t="n">
+        <v>2</v>
+      </c>
+      <c r="F110" t="b">
+        <v>1</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1</v>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+      <c r="I110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Andrus</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Peat</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>LG</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>6</v>
+      </c>
+      <c r="E111" t="n">
+        <v>6</v>
+      </c>
+      <c r="F111" t="b">
+        <v>1</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1</v>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+      <c r="I111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Pierce</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>2</v>
+      </c>
+      <c r="E112" t="n">
+        <v>2</v>
+      </c>
+      <c r="F112" t="b">
+        <v>1</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+      <c r="I112" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Ethan</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Pocic</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>4</v>
+      </c>
+      <c r="E113" t="n">
+        <v>2</v>
+      </c>
+      <c r="F113" t="b">
+        <v>1</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1</v>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+      <c r="I113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Dak</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Prescott</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>QB</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>5</v>
+      </c>
+      <c r="E114" t="n">
+        <v>3</v>
+      </c>
+      <c r="F114" t="b">
+        <v>1</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1</v>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+      <c r="I114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Ramczyk</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>7</v>
+      </c>
+      <c r="E115" t="n">
+        <v>4</v>
+      </c>
+      <c r="F115" t="b">
+        <v>1</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1</v>
+      </c>
+      <c r="H115" t="n">
+        <v>6</v>
+      </c>
+      <c r="I115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Jalen</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Ramsey</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>4</v>
+      </c>
+      <c r="E116" t="n">
+        <v>2</v>
+      </c>
+      <c r="F116" t="b">
+        <v>1</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1</v>
+      </c>
+      <c r="H116" t="n">
+        <v>3</v>
+      </c>
+      <c r="I116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Sheldon</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Rankins</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>2</v>
+      </c>
+      <c r="E117" t="n">
+        <v>2</v>
+      </c>
+      <c r="F117" t="b">
+        <v>1</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Kalif</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Raymond</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>4</v>
+      </c>
+      <c r="E118" t="n">
+        <v>2</v>
+      </c>
+      <c r="F118" t="b">
+        <v>1</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1</v>
+      </c>
+      <c r="H118" t="n">
+        <v>3</v>
+      </c>
+      <c r="I118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Haason</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Reddick</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>4</v>
+      </c>
+      <c r="E119" t="n">
+        <v>3</v>
+      </c>
+      <c r="F119" t="b">
+        <v>1</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1</v>
+      </c>
+      <c r="H119" t="n">
+        <v>3</v>
+      </c>
+      <c r="I119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>D.J.</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Reed Jr</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>4</v>
+      </c>
+      <c r="E120" t="n">
+        <v>3</v>
+      </c>
+      <c r="F120" t="b">
+        <v>1</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1</v>
+      </c>
+      <c r="H120" t="n">
+        <v>3</v>
+      </c>
+      <c r="I120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Hunter</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Renfrow</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>4</v>
+      </c>
+      <c r="E121" t="n">
+        <v>3</v>
+      </c>
+      <c r="F121" t="b">
+        <v>1</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1</v>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+      <c r="I121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>A'Shawn</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Robinson</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>2</v>
+      </c>
+      <c r="E122" t="n">
+        <v>2</v>
+      </c>
+      <c r="F122" t="b">
+        <v>1</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Aaron</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Rodgers</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>QB</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>4</v>
+      </c>
+      <c r="E123" t="n">
+        <v>2</v>
+      </c>
+      <c r="F123" t="b">
+        <v>1</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1</v>
+      </c>
+      <c r="H123" t="n">
+        <v>3</v>
+      </c>
+      <c r="I123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Curtis</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Samuel</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>4</v>
+      </c>
+      <c r="E124" t="n">
+        <v>4</v>
+      </c>
+      <c r="F124" t="b">
+        <v>1</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1</v>
+      </c>
+      <c r="H124" t="n">
+        <v>3</v>
+      </c>
+      <c r="I124" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Deebo</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Samuel</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>5</v>
+      </c>
+      <c r="E125" t="n">
+        <v>3</v>
+      </c>
+      <c r="F125" t="b">
+        <v>1</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1</v>
+      </c>
+      <c r="H125" t="n">
+        <v>4</v>
+      </c>
+      <c r="I125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Darnell</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Savage</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>FS</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>6</v>
+      </c>
+      <c r="E126" t="n">
+        <v>6</v>
+      </c>
+      <c r="F126" t="b">
+        <v>1</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1</v>
+      </c>
+      <c r="H126" t="n">
+        <v>5</v>
+      </c>
+      <c r="I126" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Brandon</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Scherff</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>RG</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>4</v>
+      </c>
+      <c r="E127" t="n">
+        <v>3</v>
+      </c>
+      <c r="F127" t="b">
+        <v>1</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1</v>
+      </c>
+      <c r="H127" t="n">
+        <v>3</v>
+      </c>
+      <c r="I127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Dalton</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Schultz</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>2</v>
+      </c>
+      <c r="E128" t="n">
+        <v>2</v>
+      </c>
+      <c r="F128" t="b">
+        <v>1</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Nathan</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Shepherd</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>4</v>
+      </c>
+      <c r="E129" t="n">
+        <v>2</v>
+      </c>
+      <c r="F129" t="b">
+        <v>1</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1</v>
+      </c>
+      <c r="H129" t="n">
+        <v>3</v>
+      </c>
+      <c r="I129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Darius</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Slay Jr</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>6</v>
+      </c>
+      <c r="E130" t="n">
+        <v>2</v>
+      </c>
+      <c r="F130" t="b">
+        <v>1</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1</v>
+      </c>
+      <c r="H130" t="n">
+        <v>3</v>
+      </c>
+      <c r="I130" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Tyron</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>2</v>
+      </c>
+      <c r="E131" t="n">
+        <v>2</v>
+      </c>
+      <c r="F131" t="b">
+        <v>1</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Za'Darius</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>3</v>
+      </c>
+      <c r="E132" t="n">
+        <v>2</v>
+      </c>
+      <c r="F132" t="b">
+        <v>1</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1</v>
+      </c>
+      <c r="H132" t="n">
+        <v>2</v>
+      </c>
+      <c r="I132" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Cameron</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Sutton</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>4</v>
+      </c>
+      <c r="E133" t="n">
+        <v>2</v>
+      </c>
+      <c r="F133" t="b">
+        <v>1</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1</v>
+      </c>
+      <c r="H133" t="n">
+        <v>3</v>
+      </c>
+      <c r="I133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Josh</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Sweat</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>RE</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>6</v>
+      </c>
+      <c r="E134" t="n">
+        <v>4</v>
+      </c>
+      <c r="F134" t="b">
+        <v>1</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1</v>
+      </c>
+      <c r="H134" t="n">
+        <v>4</v>
+      </c>
+      <c r="I134" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Wyatt</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Teller</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>RG</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>7</v>
+      </c>
+      <c r="E135" t="n">
+        <v>4</v>
+      </c>
+      <c r="F135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1</v>
+      </c>
+      <c r="H135" t="n">
+        <v>5</v>
+      </c>
+      <c r="I135" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Thielen</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>4</v>
+      </c>
+      <c r="E136" t="n">
+        <v>2</v>
+      </c>
+      <c r="F136" t="b">
+        <v>1</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1</v>
+      </c>
+      <c r="H136" t="n">
+        <v>3</v>
+      </c>
+      <c r="I136" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Thomas</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>3</v>
+      </c>
+      <c r="E137" t="n">
+        <v>2</v>
+      </c>
+      <c r="F137" t="b">
+        <v>1</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1</v>
+      </c>
+      <c r="H137" t="n">
+        <v>2</v>
+      </c>
+      <c r="I137" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Jalen</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Thompson</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>FS</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>5</v>
+      </c>
+      <c r="E138" t="n">
+        <v>3</v>
+      </c>
+      <c r="F138" t="b">
+        <v>1</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1</v>
+      </c>
+      <c r="H138" t="n">
+        <v>4</v>
+      </c>
+      <c r="I138" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Shaq</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Thompson</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>MLB</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>3</v>
+      </c>
+      <c r="E139" t="n">
+        <v>2</v>
+      </c>
+      <c r="F139" t="b">
+        <v>1</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1</v>
+      </c>
+      <c r="H139" t="n">
+        <v>2</v>
+      </c>
+      <c r="I139" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Thornhill</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>FS</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>4</v>
+      </c>
+      <c r="E140" t="n">
+        <v>2</v>
+      </c>
+      <c r="F140" t="b">
+        <v>1</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1</v>
+      </c>
+      <c r="H140" t="n">
+        <v>3</v>
+      </c>
+      <c r="I140" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Dalvin</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Tomlinson</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>5</v>
+      </c>
+      <c r="E141" t="n">
+        <v>2</v>
+      </c>
+      <c r="F141" t="b">
+        <v>1</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1</v>
+      </c>
+      <c r="H141" t="n">
+        <v>4</v>
+      </c>
+      <c r="I141" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Laken</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Tomlinson</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>LG</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>4</v>
+      </c>
+      <c r="E142" t="n">
+        <v>3</v>
+      </c>
+      <c r="F142" t="b">
+        <v>1</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1</v>
+      </c>
+      <c r="H142" t="n">
+        <v>3</v>
+      </c>
+      <c r="I142" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>C.J.</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Uzomah</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>4</v>
+      </c>
+      <c r="E143" t="n">
+        <v>3</v>
+      </c>
+      <c r="F143" t="b">
+        <v>1</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1</v>
+      </c>
+      <c r="H143" t="n">
+        <v>3</v>
+      </c>
+      <c r="I143" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Halapoulivaati</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Vaitai</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>RG</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>6</v>
+      </c>
+      <c r="E144" t="n">
+        <v>6</v>
+      </c>
+      <c r="F144" t="b">
+        <v>1</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1</v>
+      </c>
+      <c r="H144" t="n">
+        <v>5</v>
+      </c>
+      <c r="I144" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Vita</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Vea</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>7</v>
+      </c>
+      <c r="E145" t="n">
+        <v>4</v>
+      </c>
+      <c r="F145" t="b">
+        <v>1</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1</v>
+      </c>
+      <c r="H145" t="n">
+        <v>6</v>
+      </c>
+      <c r="I145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Tracy</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Walker III</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>FS</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>4</v>
+      </c>
+      <c r="E146" t="n">
+        <v>3</v>
+      </c>
+      <c r="F146" t="b">
+        <v>1</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1</v>
+      </c>
+      <c r="H146" t="n">
+        <v>3</v>
+      </c>
+      <c r="I146" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Charvarius</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Ward</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>4</v>
+      </c>
+      <c r="E147" t="n">
+        <v>3</v>
+      </c>
+      <c r="F147" t="b">
+        <v>1</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1</v>
+      </c>
+      <c r="H147" t="n">
+        <v>3</v>
+      </c>
+      <c r="I147" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Fred</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Warner</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>MLB</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>7</v>
+      </c>
+      <c r="E148" t="n">
+        <v>4</v>
+      </c>
+      <c r="F148" t="b">
+        <v>1</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1</v>
+      </c>
+      <c r="H148" t="n">
+        <v>6</v>
+      </c>
+      <c r="I148" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Deshaun</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Watson</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>QB</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>6</v>
+      </c>
+      <c r="E149" t="n">
+        <v>3</v>
+      </c>
+      <c r="F149" t="b">
+        <v>1</v>
+      </c>
+      <c r="G149" t="n">
+        <v>1</v>
+      </c>
+      <c r="H149" t="n">
+        <v>5</v>
+      </c>
+      <c r="I149" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Jordan</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Whitehead</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>FS</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>3</v>
+      </c>
+      <c r="E150" t="n">
+        <v>3</v>
+      </c>
+      <c r="F150" t="b">
+        <v>1</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1</v>
+      </c>
+      <c r="H150" t="n">
+        <v>2</v>
+      </c>
+      <c r="I150" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Jamaal</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>HB</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>4</v>
+      </c>
+      <c r="E151" t="n">
+        <v>2</v>
+      </c>
+      <c r="F151" t="b">
+        <v>1</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1</v>
+      </c>
+      <c r="H151" t="n">
+        <v>3</v>
+      </c>
+      <c r="I151" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Leonard</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>4</v>
+      </c>
+      <c r="E152" t="n">
+        <v>4</v>
+      </c>
+      <c r="F152" t="b">
+        <v>1</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1</v>
+      </c>
+      <c r="H152" t="n">
+        <v>3</v>
+      </c>
+      <c r="I152" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Quincy</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>ROLB</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>4</v>
+      </c>
+      <c r="E153" t="n">
+        <v>2</v>
+      </c>
+      <c r="F153" t="b">
+        <v>1</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1</v>
+      </c>
+      <c r="H153" t="n">
+        <v>3</v>
+      </c>
+      <c r="I153" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Cedrick</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Wilson Jr</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>2</v>
+      </c>
+      <c r="E154" t="n">
+        <v>2</v>
+      </c>
+      <c r="F154" t="b">
+        <v>1</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Donovan</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Wilson</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>4</v>
+      </c>
+      <c r="E155" t="n">
+        <v>2</v>
+      </c>
+      <c r="F155" t="b">
+        <v>1</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1</v>
+      </c>
+      <c r="H155" t="n">
+        <v>3</v>
+      </c>
+      <c r="I155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Jameis</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Winston</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>QB</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>2</v>
+      </c>
+      <c r="E156" t="n">
+        <v>2</v>
+      </c>
+      <c r="F156" t="b">
+        <v>1</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Kevin</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Zeitler</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>RG</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>4</v>
+      </c>
+      <c r="E157" t="n">
+        <v>4</v>
+      </c>
+      <c r="F157" t="b">
+        <v>1</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1</v>
+      </c>
+      <c r="H157" t="n">
+        <v>3</v>
+      </c>
+      <c r="I157" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Files/Madden24/IE/Test/Player_VoidYears.xlsx
+++ b/Files/Madden24/IE/Test/Player_VoidYears.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I157"/>
+  <dimension ref="A1:I116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,24 +483,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Nelson</t>
+          <t>Jaire</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Agholor</t>
+          <t>Alexander</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>CB</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -509,33 +509,33 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jaire</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alexander</t>
+          <t>Allen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CB</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -544,16 +544,16 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Zach</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>LE</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -588,24 +588,24 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Zach</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Allen</t>
+          <t>Anzalone</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LE</t>
+          <t>ROLB</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -623,24 +623,24 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Azeez</t>
+          <t>Arik</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Al-Shaair</t>
+          <t>Armstead</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MLB</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -649,7 +649,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
@@ -658,24 +658,24 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>Shaquil</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Anzalone</t>
+          <t>Barrett</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ROLB</t>
+          <t>RE</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -684,33 +684,33 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Arik</t>
+          <t>Ryan</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Armstead</t>
+          <t>Bates</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -719,7 +719,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -728,24 +728,24 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Derek</t>
+          <t>Joel</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Barnett</t>
+          <t>Bitonio</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>RE</t>
+          <t>LG</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -754,21 +754,21 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Shaquil</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Barrett</t>
+          <t>Bosa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -789,7 +789,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
@@ -798,21 +798,21 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ryan</t>
+          <t>James</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bates</t>
+          <t>Bradberry IV</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>CB</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
         <v>3</v>
@@ -824,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
@@ -833,12 +833,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Odell</t>
+          <t>A.J.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Beckham Jr</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -859,33 +859,33 @@
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Joel</t>
+          <t>Kevin</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Bitonio</t>
+          <t>Byard</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LG</t>
+          <t>FS</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
@@ -894,33 +894,33 @@
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Derek</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Bosa</t>
+          <t>Carr</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>RE</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -938,24 +938,24 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Kenny</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bradberry IV</t>
+          <t>Clark</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CB</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="D15" t="n">
         <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -967,30 +967,30 @@
         <v>3</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A.J.</t>
+          <t>Jack</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Conklin</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RT</t>
         </is>
       </c>
       <c r="D16" t="n">
         <v>6</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -1008,24 +1008,24 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Trent</t>
+          <t>Tyler</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Conklin</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -1034,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
@@ -1043,24 +1043,24 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Kevin</t>
+          <t>Brandin</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Byard</t>
+          <t>Cooks</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>FS</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D18" t="n">
         <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
@@ -1072,18 +1072,18 @@
         <v>2</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>D.J.</t>
+          <t>Amari</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Chark Jr</t>
+          <t>Cooper</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1092,10 +1092,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
@@ -1104,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
@@ -1113,24 +1113,24 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Kenny</t>
+          <t>Austin</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Clark</t>
+          <t>Corbett</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>RG</t>
         </is>
       </c>
       <c r="D20" t="n">
         <v>4</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
@@ -1142,30 +1142,30 @@
         <v>3</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Jack</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Conklin</t>
+          <t>Davis III</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>RT</t>
+          <t>CB</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
@@ -1174,33 +1174,33 @@
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>Dion</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Conklin</t>
+          <t>Dawkins</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
@@ -1209,33 +1209,33 @@
         <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Brandin</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Cooks</t>
+          <t>Decker</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
@@ -1244,26 +1244,26 @@
         <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Amari</t>
+          <t>Andre</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Cooper</t>
+          <t>Dillard</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1288,24 +1288,24 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Austin</t>
+          <t>Aaron</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Corbett</t>
+          <t>Donald</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>RG</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="D25" t="n">
         <v>4</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F25" t="b">
         <v>1</v>
@@ -1317,30 +1317,30 @@
         <v>3</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Kirk</t>
+          <t>Rasul</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Cousins</t>
+          <t>Douglas</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>CB</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26" t="b">
         <v>1</v>
@@ -1349,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I26" t="b">
         <v>1</v>
@@ -1358,24 +1358,24 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Fletcher</t>
+          <t>Jake</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Cox</t>
+          <t>Elliott</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>K</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F27" t="b">
         <v>1</v>
@@ -1384,7 +1384,7 @@
         <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I27" t="b">
         <v>1</v>
@@ -1393,24 +1393,24 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Marcus</t>
+          <t>Evan</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Davenport</t>
+          <t>Engram</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>RE</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28" t="b">
         <v>1</v>
@@ -1419,33 +1419,33 @@
         <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Lavonte</t>
+          <t>Zach</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Ertz</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ROLB</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F29" t="b">
         <v>1</v>
@@ -1454,7 +1454,7 @@
         <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I29" t="b">
         <v>1</v>
@@ -1463,24 +1463,24 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Mike</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Davis III</t>
+          <t>Evans</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D30" t="n">
         <v>4</v>
       </c>
       <c r="E30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F30" t="b">
         <v>1</v>
@@ -1489,33 +1489,33 @@
         <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Demario</t>
+          <t>Folorunso</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Fatukasi</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MLB</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="D31" t="n">
         <v>4</v>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F31" t="b">
         <v>1</v>
@@ -1527,23 +1527,23 @@
         <v>3</v>
       </c>
       <c r="I31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Dion</t>
+          <t>John</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dawkins</t>
+          <t>Franklin-Myers</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>LE</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1568,24 +1568,24 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Jimmy</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Decker</t>
+          <t>Garoppolo</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F33" t="b">
         <v>1</v>
@@ -1594,7 +1594,7 @@
         <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I33" t="b">
         <v>0</v>
@@ -1603,24 +1603,24 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Andre</t>
+          <t>Chris</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Dillard</t>
+          <t>Godwin</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D34" t="n">
         <v>4</v>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F34" t="b">
         <v>1</v>
@@ -1632,30 +1632,30 @@
         <v>3</v>
       </c>
       <c r="I34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Aaron</t>
+          <t>Dallas</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Donald</t>
+          <t>Goedert</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F35" t="b">
         <v>1</v>
@@ -1664,7 +1664,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I35" t="b">
         <v>0</v>
@@ -1673,24 +1673,24 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Rasul</t>
+          <t>Dre</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Douglas</t>
+          <t>Greenlaw</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CB</t>
+          <t>ROLB</t>
         </is>
       </c>
       <c r="D36" t="n">
         <v>4</v>
       </c>
       <c r="E36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F36" t="b">
         <v>1</v>
@@ -1702,30 +1702,30 @@
         <v>3</v>
       </c>
       <c r="I36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Gus</t>
+          <t>DaVon</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Edwards</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>HB</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F37" t="b">
         <v>1</v>
@@ -1734,33 +1734,33 @@
         <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Jake</t>
+          <t>Javon</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Elliott</t>
+          <t>Hargrave</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E38" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F38" t="b">
         <v>1</v>
@@ -1769,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I38" t="b">
         <v>0</v>
@@ -1778,47 +1778,47 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Evan</t>
+          <t>Rob</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Engram</t>
+          <t>Havenstein</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>RT</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E39" t="n">
+        <v>3</v>
+      </c>
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="n">
         <v>2</v>
       </c>
-      <c r="F39" t="b">
-        <v>1</v>
-      </c>
-      <c r="G39" t="n">
-        <v>1</v>
-      </c>
-      <c r="H39" t="n">
-        <v>3</v>
-      </c>
       <c r="I39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Zach</t>
+          <t>Tyler</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Ertz</t>
+          <t>Higbee</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1848,12 +1848,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Mike</t>
+          <t>DeAndre</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Evans</t>
+          <t>Hopkins</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E41" t="n">
         <v>3</v>
@@ -1883,21 +1883,21 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Folorunso</t>
+          <t>Jalen</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Fatukasi</t>
+          <t>Hurts</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E42" t="n">
         <v>3</v>
@@ -1909,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I42" t="b">
         <v>0</v>
@@ -1918,21 +1918,21 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Donte</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Franklin-Myers</t>
+          <t>Jackson</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>LE</t>
+          <t>CB</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -1944,33 +1944,33 @@
         <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Eddie</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Gaines</t>
+          <t>Jackson</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>FS</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F44" t="b">
         <v>1</v>
@@ -1979,7 +1979,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I44" t="b">
         <v>1</v>
@@ -1988,24 +1988,24 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>C.J.</t>
+          <t>Lamar</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Gardner-Johnson</t>
+          <t>Jackson</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>FS</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F45" t="b">
         <v>1</v>
@@ -2014,33 +2014,33 @@
         <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Jimmy</t>
+          <t>Rayshawn</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Garoppolo</t>
+          <t>Jenkins</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F46" t="b">
         <v>1</v>
@@ -2049,33 +2049,33 @@
         <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Chris</t>
+          <t>Ryan</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Godwin</t>
+          <t>Jensen</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F47" t="b">
         <v>1</v>
@@ -2087,18 +2087,18 @@
         <v>3</v>
       </c>
       <c r="I47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Dallas</t>
+          <t>Juwan</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Goedert</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F48" t="b">
         <v>1</v>
@@ -2119,30 +2119,30 @@
         <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Dre</t>
+          <t>Lane</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Greenlaw</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ROLB</t>
+          <t>RT</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E49" t="n">
         <v>3</v>
@@ -2154,7 +2154,7 @@
         <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I49" t="b">
         <v>0</v>
@@ -2163,24 +2163,24 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>DaVon</t>
+          <t>Aaron</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>HB</t>
         </is>
       </c>
       <c r="D50" t="n">
         <v>5</v>
       </c>
       <c r="E50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F50" t="b">
         <v>1</v>
@@ -2192,30 +2192,30 @@
         <v>4</v>
       </c>
       <c r="I50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Javon</t>
+          <t>Zay</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Hargrave</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F51" t="b">
         <v>1</v>
@@ -2224,33 +2224,33 @@
         <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Rob</t>
+          <t>Cameron</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Havenstein</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>RT</t>
+          <t>LE</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F52" t="b">
         <v>1</v>
@@ -2259,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I52" t="b">
         <v>0</v>
@@ -2268,24 +2268,24 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Derrick</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Henry</t>
+          <t>Judon</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>HB</t>
+          <t>LE</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F53" t="b">
         <v>1</v>
@@ -2294,7 +2294,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I53" t="b">
         <v>1</v>
@@ -2303,24 +2303,24 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>Alvin</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Higbee</t>
+          <t>Kamara</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>HB</t>
         </is>
       </c>
       <c r="D54" t="n">
         <v>4</v>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F54" t="b">
         <v>1</v>
@@ -2338,24 +2338,24 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Taysom</t>
+          <t>Arden</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Hill</t>
+          <t>Key</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>LE</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F55" t="b">
         <v>1</v>
@@ -2364,7 +2364,7 @@
         <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I55" t="b">
         <v>0</v>
@@ -2373,12 +2373,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>DeAndre</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Hopkins</t>
+          <t>Kirk</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2387,10 +2387,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F56" t="b">
         <v>1</v>
@@ -2399,7 +2399,7 @@
         <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I56" t="b">
         <v>0</v>
@@ -2408,24 +2408,24 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>George</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Kittle</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>LE</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F57" t="b">
         <v>1</v>
@@ -2434,33 +2434,33 @@
         <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Jerry</t>
+          <t>Marshon</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Hughes Jr</t>
+          <t>Lattimore</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>LE</t>
+          <t>CB</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F58" t="b">
         <v>1</v>
@@ -2469,21 +2469,21 @@
         <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Danielle</t>
+          <t>DeMarcus</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>Lawrence</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2492,10 +2492,10 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F59" t="b">
         <v>1</v>
@@ -2504,7 +2504,7 @@
         <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I59" t="b">
         <v>1</v>
@@ -2513,21 +2513,21 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Allen</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Hurst</t>
+          <t>Lazard</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>LG</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E60" t="n">
         <v>3</v>
@@ -2539,33 +2539,33 @@
         <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Jalen</t>
+          <t>Charles</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Hurts</t>
+          <t>Leno Jr</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F61" t="b">
         <v>1</v>
@@ -2574,33 +2574,33 @@
         <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Micah</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Hyde</t>
+          <t>Love</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>FS</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F62" t="b">
         <v>1</v>
@@ -2609,7 +2609,7 @@
         <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I62" t="b">
         <v>1</v>
@@ -2618,24 +2618,24 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Adoree'</t>
+          <t>Dean</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Jackson</t>
+          <t>Lowry</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CB</t>
+          <t>LE</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F63" t="b">
         <v>1</v>
@@ -2644,7 +2644,7 @@
         <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I63" t="b">
         <v>1</v>
@@ -2653,12 +2653,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Donte</t>
+          <t>Avonte</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Jackson</t>
+          <t>Maddox</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2667,10 +2667,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F64" t="b">
         <v>1</v>
@@ -2679,30 +2679,30 @@
         <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Eddie</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Jackson</t>
+          <t>Mailata</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>FS</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E65" t="n">
         <v>5</v>
@@ -2723,52 +2723,52 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Lamar</t>
+          <t>Zack</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Jackson</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>RG</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E66" t="n">
+        <v>3</v>
+      </c>
+      <c r="F66" t="b">
+        <v>1</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="n">
         <v>2</v>
       </c>
-      <c r="F66" t="b">
-        <v>1</v>
-      </c>
-      <c r="G66" t="n">
-        <v>1</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5</v>
-      </c>
       <c r="I66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Rayshawn</t>
+          <t>Tyrann</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Jenkins</t>
+          <t>Mathieu</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SS</t>
+          <t>FS</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -2784,33 +2784,33 @@
         <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Ryan</t>
+          <t>Marcus</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Jensen</t>
+          <t>Maye</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F68" t="b">
         <v>1</v>
@@ -2822,30 +2822,30 @@
         <v>3</v>
       </c>
       <c r="I68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Juwan</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>McCaffrey</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>HB</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F69" t="b">
         <v>1</v>
@@ -2854,7 +2854,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I69" t="b">
         <v>0</v>
@@ -2863,24 +2863,24 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Lane</t>
+          <t>Connor</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>McGovern</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>RT</t>
+          <t>LG</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F70" t="b">
         <v>1</v>
@@ -2889,7 +2889,7 @@
         <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I70" t="b">
         <v>0</v>
@@ -2898,17 +2898,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Aaron</t>
+          <t>Terry</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>McLaurin</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>HB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -2933,24 +2933,24 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Chris</t>
+          <t>Matt</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Milano</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>ROLB</t>
         </is>
       </c>
       <c r="D72" t="n">
         <v>5</v>
       </c>
       <c r="E72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F72" t="b">
         <v>1</v>
@@ -2962,27 +2962,27 @@
         <v>4</v>
       </c>
       <c r="I72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>DaQuan</t>
+          <t>David</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Montgomery</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>HB</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E73" t="n">
         <v>3</v>
@@ -2994,33 +2994,33 @@
         <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Zay</t>
+          <t>C.J.</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Mosley</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>MLB</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E74" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F74" t="b">
         <v>1</v>
@@ -3029,68 +3029,68 @@
         <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Cameron</t>
+          <t>Byron</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Murphy Jr</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>LE</t>
+          <t>CB</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E75" t="n">
+        <v>3</v>
+      </c>
+      <c r="F75" t="b">
+        <v>1</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H75" t="n">
         <v>2</v>
       </c>
-      <c r="F75" t="b">
-        <v>1</v>
-      </c>
-      <c r="G75" t="n">
-        <v>1</v>
-      </c>
-      <c r="H75" t="n">
-        <v>3</v>
-      </c>
       <c r="I75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Matthew</t>
+          <t>Anthony</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Judon</t>
+          <t>Nelson</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>LE</t>
+          <t>RE</t>
         </is>
       </c>
       <c r="D76" t="n">
         <v>3</v>
       </c>
       <c r="E76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F76" t="b">
         <v>1</v>
@@ -3102,30 +3102,30 @@
         <v>2</v>
       </c>
       <c r="I76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Alvin</t>
+          <t>David</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Kamara</t>
+          <t>Njoku</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>HB</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F77" t="b">
         <v>1</v>
@@ -3134,7 +3134,7 @@
         <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I77" t="b">
         <v>0</v>
@@ -3143,24 +3143,24 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Jason</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Kelce</t>
+          <t>Noteboom</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="D78" t="n">
         <v>4</v>
       </c>
       <c r="E78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F78" t="b">
         <v>1</v>
@@ -3169,7 +3169,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I78" t="b">
         <v>1</v>
@@ -3178,24 +3178,24 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Arden</t>
+          <t>Ogbonnia</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Key</t>
+          <t>Okoronkwo</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>LE</t>
+          <t>RE</t>
         </is>
       </c>
       <c r="D79" t="n">
         <v>4</v>
       </c>
       <c r="E79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F79" t="b">
         <v>1</v>
@@ -3213,21 +3213,21 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>Josh</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Kirk</t>
+          <t>Oliver</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E80" t="n">
         <v>3</v>
@@ -3239,7 +3239,7 @@
         <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I80" t="b">
         <v>0</v>
@@ -3248,24 +3248,24 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>George</t>
+          <t>Foyesade</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Kittle</t>
+          <t>Oluokun</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>MLB</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F81" t="b">
         <v>1</v>
@@ -3274,33 +3274,33 @@
         <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Marshon</t>
+          <t>Da'Ron</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Lattimore</t>
+          <t>Payne</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CB</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F82" t="b">
         <v>1</v>
@@ -3309,7 +3309,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I82" t="b">
         <v>0</v>
@@ -3318,17 +3318,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>DeMarcus</t>
+          <t>Ethan</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Lawrence</t>
+          <t>Pocic</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>LE</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -3353,24 +3353,24 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Carl</t>
+          <t>Dak</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Lawson</t>
+          <t>Prescott</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>RE</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F84" t="b">
         <v>1</v>
@@ -3379,7 +3379,7 @@
         <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I84" t="b">
         <v>1</v>
@@ -3388,24 +3388,24 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Allen</t>
+          <t>Ryan</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Lazard</t>
+          <t>Ramczyk</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RT</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F85" t="b">
         <v>1</v>
@@ -3414,7 +3414,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I85" t="b">
         <v>0</v>
@@ -3423,24 +3423,24 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Charles</t>
+          <t>Jalen</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Leno Jr</t>
+          <t>Ramsey</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>CB</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F86" t="b">
         <v>1</v>
@@ -3449,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I86" t="b">
         <v>0</v>
@@ -3458,24 +3458,24 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Kalif</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Love</t>
+          <t>Raymond</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F87" t="b">
         <v>1</v>
@@ -3484,7 +3484,7 @@
         <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I87" t="b">
         <v>0</v>
@@ -3493,12 +3493,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Dean</t>
+          <t>Haason</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Lowry</t>
+          <t>Reddick</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3507,10 +3507,10 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F88" t="b">
         <v>1</v>
@@ -3519,21 +3519,21 @@
         <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Avonte</t>
+          <t>D.J.</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Maddox</t>
+          <t>Reed Jr</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -3554,30 +3554,30 @@
         <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Mailata</t>
+          <t>Renfrow</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -3589,33 +3589,33 @@
         <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Zack</t>
+          <t>Roy</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Robertson-Harris</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>RG</t>
+          <t>RE</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F91" t="b">
         <v>1</v>
@@ -3624,7 +3624,7 @@
         <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I91" t="b">
         <v>0</v>
@@ -3633,21 +3633,21 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Tyrann</t>
+          <t>Aaron</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Mathieu</t>
+          <t>Rodgers</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>FS</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E92" t="n">
         <v>3</v>
@@ -3668,24 +3668,24 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Marcus</t>
+          <t>Deebo</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Maye</t>
+          <t>Samuel</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>SS</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F93" t="b">
         <v>1</v>
@@ -3694,7 +3694,7 @@
         <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I93" t="b">
         <v>0</v>
@@ -3703,24 +3703,24 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Baker</t>
+          <t>Brandon</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Mayfield</t>
+          <t>Scherff</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>RG</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F94" t="b">
         <v>1</v>
@@ -3729,7 +3729,7 @@
         <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I94" t="b">
         <v>1</v>
@@ -3738,21 +3738,21 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>Nathan</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>McCaffrey</t>
+          <t>Shepherd</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>HB</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E95" t="n">
         <v>3</v>
@@ -3764,7 +3764,7 @@
         <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I95" t="b">
         <v>0</v>
@@ -3773,24 +3773,24 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Connor</t>
+          <t>Darius</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>McGovern</t>
+          <t>Slay Jr</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>LG</t>
+          <t>CB</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F96" t="b">
         <v>1</v>
@@ -3808,21 +3808,21 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Terry</t>
+          <t>Za'Darius</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>McLaurin</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>LE</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E97" t="n">
         <v>3</v>
@@ -3834,33 +3834,33 @@
         <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Matt</t>
+          <t>Cameron</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Milano</t>
+          <t>Sutton</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>ROLB</t>
+          <t>CB</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F98" t="b">
         <v>1</v>
@@ -3869,7 +3869,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I98" t="b">
         <v>0</v>
@@ -3878,24 +3878,24 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Josh</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Montgomery</t>
+          <t>Sweat</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>HB</t>
+          <t>RE</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F99" t="b">
         <v>1</v>
@@ -3904,30 +3904,30 @@
         <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>C.J.</t>
+          <t>Wyatt</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Mosley</t>
+          <t>Teller</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>MLB</t>
+          <t>RG</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E100" t="n">
         <v>5</v>
@@ -3948,24 +3948,24 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Byron</t>
+          <t>Adam</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Murphy Jr</t>
+          <t>Thielen</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>CB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F101" t="b">
         <v>1</v>
@@ -3974,7 +3974,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I101" t="b">
         <v>0</v>
@@ -3983,24 +3983,24 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Anthony</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Nelson</t>
+          <t>Thomas</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>RE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D102" t="n">
         <v>3</v>
       </c>
       <c r="E102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F102" t="b">
         <v>1</v>
@@ -4012,30 +4012,30 @@
         <v>2</v>
       </c>
       <c r="I102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Keisean</t>
+          <t>Jalen</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Nixon</t>
+          <t>Thompson</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>CB</t>
+          <t>FS</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E103" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F103" t="b">
         <v>1</v>
@@ -4044,30 +4044,30 @@
         <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Shaq</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Njoku</t>
+          <t>Thompson</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>MLB</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E104" t="n">
         <v>3</v>
@@ -4079,26 +4079,26 @@
         <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Juan</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Noteboom</t>
+          <t>Thornhill</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>FS</t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -4123,24 +4123,24 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Ogbonnia</t>
+          <t>Dalvin</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Okoronkwo</t>
+          <t>Tomlinson</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>RE</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F106" t="b">
         <v>1</v>
@@ -4149,7 +4149,7 @@
         <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I106" t="b">
         <v>0</v>
@@ -4158,17 +4158,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Romeo</t>
+          <t>Laken</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Okwara</t>
+          <t>Tomlinson</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>LE</t>
+          <t>LG</t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -4193,12 +4193,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Josh</t>
+          <t>C.J.</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Oliver</t>
+          <t>Uzomah</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4210,7 +4210,7 @@
         <v>4</v>
       </c>
       <c r="E108" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F108" t="b">
         <v>1</v>
@@ -4222,30 +4222,30 @@
         <v>3</v>
       </c>
       <c r="I108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Foyesade</t>
+          <t>Vita</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Oluokun</t>
+          <t>Vea</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>MLB</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E109" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F109" t="b">
         <v>1</v>
@@ -4254,7 +4254,7 @@
         <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I109" t="b">
         <v>0</v>
@@ -4263,24 +4263,24 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Da'Ron</t>
+          <t>Tracy</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Payne</t>
+          <t>Walker III</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>FS</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E110" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F110" t="b">
         <v>1</v>
@@ -4289,33 +4289,33 @@
         <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Andrus</t>
+          <t>Charvarius</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Peat</t>
+          <t>Ward</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>LG</t>
+          <t>CB</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E111" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F111" t="b">
         <v>1</v>
@@ -4324,7 +4324,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I111" t="b">
         <v>1</v>
@@ -4333,24 +4333,24 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Fred</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Pierce</t>
+          <t>Warner</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>MLB</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E112" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F112" t="b">
         <v>1</v>
@@ -4359,33 +4359,33 @@
         <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Ethan</t>
+          <t>Deshaun</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Pocic</t>
+          <t>Watson</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E113" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F113" t="b">
         <v>1</v>
@@ -4394,7 +4394,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I113" t="b">
         <v>0</v>
@@ -4403,21 +4403,21 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Dak</t>
+          <t>Jamaal</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Prescott</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>HB</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E114" t="n">
         <v>3</v>
@@ -4438,24 +4438,24 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Ryan</t>
+          <t>Quincy</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Ramczyk</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>RT</t>
+          <t>ROLB</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E115" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F115" t="b">
         <v>1</v>
@@ -4464,7 +4464,7 @@
         <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I115" t="b">
         <v>0</v>
@@ -4473,24 +4473,24 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Jalen</t>
+          <t>Donovan</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Ramsey</t>
+          <t>Wilson</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>CB</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="D116" t="n">
         <v>4</v>
       </c>
       <c r="E116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F116" t="b">
         <v>1</v>
@@ -4503,1441 +4503,6 @@
       </c>
       <c r="I116" t="b">
         <v>0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Sheldon</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Rankins</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>DT</t>
-        </is>
-      </c>
-      <c r="D117" t="n">
-        <v>2</v>
-      </c>
-      <c r="E117" t="n">
-        <v>2</v>
-      </c>
-      <c r="F117" t="b">
-        <v>1</v>
-      </c>
-      <c r="G117" t="n">
-        <v>1</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Kalif</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Raymond</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>WR</t>
-        </is>
-      </c>
-      <c r="D118" t="n">
-        <v>4</v>
-      </c>
-      <c r="E118" t="n">
-        <v>2</v>
-      </c>
-      <c r="F118" t="b">
-        <v>1</v>
-      </c>
-      <c r="G118" t="n">
-        <v>1</v>
-      </c>
-      <c r="H118" t="n">
-        <v>3</v>
-      </c>
-      <c r="I118" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Haason</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Reddick</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>LE</t>
-        </is>
-      </c>
-      <c r="D119" t="n">
-        <v>4</v>
-      </c>
-      <c r="E119" t="n">
-        <v>3</v>
-      </c>
-      <c r="F119" t="b">
-        <v>1</v>
-      </c>
-      <c r="G119" t="n">
-        <v>1</v>
-      </c>
-      <c r="H119" t="n">
-        <v>3</v>
-      </c>
-      <c r="I119" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>D.J.</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Reed Jr</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>CB</t>
-        </is>
-      </c>
-      <c r="D120" t="n">
-        <v>4</v>
-      </c>
-      <c r="E120" t="n">
-        <v>3</v>
-      </c>
-      <c r="F120" t="b">
-        <v>1</v>
-      </c>
-      <c r="G120" t="n">
-        <v>1</v>
-      </c>
-      <c r="H120" t="n">
-        <v>3</v>
-      </c>
-      <c r="I120" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Hunter</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Renfrow</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>WR</t>
-        </is>
-      </c>
-      <c r="D121" t="n">
-        <v>4</v>
-      </c>
-      <c r="E121" t="n">
-        <v>3</v>
-      </c>
-      <c r="F121" t="b">
-        <v>1</v>
-      </c>
-      <c r="G121" t="n">
-        <v>1</v>
-      </c>
-      <c r="H121" t="n">
-        <v>3</v>
-      </c>
-      <c r="I121" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>A'Shawn</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Robinson</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>DT</t>
-        </is>
-      </c>
-      <c r="D122" t="n">
-        <v>2</v>
-      </c>
-      <c r="E122" t="n">
-        <v>2</v>
-      </c>
-      <c r="F122" t="b">
-        <v>1</v>
-      </c>
-      <c r="G122" t="n">
-        <v>1</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Aaron</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Rodgers</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>QB</t>
-        </is>
-      </c>
-      <c r="D123" t="n">
-        <v>4</v>
-      </c>
-      <c r="E123" t="n">
-        <v>2</v>
-      </c>
-      <c r="F123" t="b">
-        <v>1</v>
-      </c>
-      <c r="G123" t="n">
-        <v>1</v>
-      </c>
-      <c r="H123" t="n">
-        <v>3</v>
-      </c>
-      <c r="I123" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Curtis</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Samuel</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>WR</t>
-        </is>
-      </c>
-      <c r="D124" t="n">
-        <v>4</v>
-      </c>
-      <c r="E124" t="n">
-        <v>4</v>
-      </c>
-      <c r="F124" t="b">
-        <v>1</v>
-      </c>
-      <c r="G124" t="n">
-        <v>1</v>
-      </c>
-      <c r="H124" t="n">
-        <v>3</v>
-      </c>
-      <c r="I124" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>Deebo</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Samuel</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>WR</t>
-        </is>
-      </c>
-      <c r="D125" t="n">
-        <v>5</v>
-      </c>
-      <c r="E125" t="n">
-        <v>3</v>
-      </c>
-      <c r="F125" t="b">
-        <v>1</v>
-      </c>
-      <c r="G125" t="n">
-        <v>1</v>
-      </c>
-      <c r="H125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I125" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Darnell</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Savage</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>FS</t>
-        </is>
-      </c>
-      <c r="D126" t="n">
-        <v>6</v>
-      </c>
-      <c r="E126" t="n">
-        <v>6</v>
-      </c>
-      <c r="F126" t="b">
-        <v>1</v>
-      </c>
-      <c r="G126" t="n">
-        <v>1</v>
-      </c>
-      <c r="H126" t="n">
-        <v>5</v>
-      </c>
-      <c r="I126" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Brandon</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Scherff</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>RG</t>
-        </is>
-      </c>
-      <c r="D127" t="n">
-        <v>4</v>
-      </c>
-      <c r="E127" t="n">
-        <v>3</v>
-      </c>
-      <c r="F127" t="b">
-        <v>1</v>
-      </c>
-      <c r="G127" t="n">
-        <v>1</v>
-      </c>
-      <c r="H127" t="n">
-        <v>3</v>
-      </c>
-      <c r="I127" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Dalton</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Schultz</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>TE</t>
-        </is>
-      </c>
-      <c r="D128" t="n">
-        <v>2</v>
-      </c>
-      <c r="E128" t="n">
-        <v>2</v>
-      </c>
-      <c r="F128" t="b">
-        <v>1</v>
-      </c>
-      <c r="G128" t="n">
-        <v>1</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>Nathan</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Shepherd</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>DT</t>
-        </is>
-      </c>
-      <c r="D129" t="n">
-        <v>4</v>
-      </c>
-      <c r="E129" t="n">
-        <v>2</v>
-      </c>
-      <c r="F129" t="b">
-        <v>1</v>
-      </c>
-      <c r="G129" t="n">
-        <v>1</v>
-      </c>
-      <c r="H129" t="n">
-        <v>3</v>
-      </c>
-      <c r="I129" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Darius</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Slay Jr</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>CB</t>
-        </is>
-      </c>
-      <c r="D130" t="n">
-        <v>6</v>
-      </c>
-      <c r="E130" t="n">
-        <v>2</v>
-      </c>
-      <c r="F130" t="b">
-        <v>1</v>
-      </c>
-      <c r="G130" t="n">
-        <v>1</v>
-      </c>
-      <c r="H130" t="n">
-        <v>3</v>
-      </c>
-      <c r="I130" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>Tyron</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Smith</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>LT</t>
-        </is>
-      </c>
-      <c r="D131" t="n">
-        <v>2</v>
-      </c>
-      <c r="E131" t="n">
-        <v>2</v>
-      </c>
-      <c r="F131" t="b">
-        <v>1</v>
-      </c>
-      <c r="G131" t="n">
-        <v>1</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>Za'Darius</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Smith</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>LE</t>
-        </is>
-      </c>
-      <c r="D132" t="n">
-        <v>3</v>
-      </c>
-      <c r="E132" t="n">
-        <v>2</v>
-      </c>
-      <c r="F132" t="b">
-        <v>1</v>
-      </c>
-      <c r="G132" t="n">
-        <v>1</v>
-      </c>
-      <c r="H132" t="n">
-        <v>2</v>
-      </c>
-      <c r="I132" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Cameron</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Sutton</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>CB</t>
-        </is>
-      </c>
-      <c r="D133" t="n">
-        <v>4</v>
-      </c>
-      <c r="E133" t="n">
-        <v>2</v>
-      </c>
-      <c r="F133" t="b">
-        <v>1</v>
-      </c>
-      <c r="G133" t="n">
-        <v>1</v>
-      </c>
-      <c r="H133" t="n">
-        <v>3</v>
-      </c>
-      <c r="I133" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Josh</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Sweat</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>RE</t>
-        </is>
-      </c>
-      <c r="D134" t="n">
-        <v>6</v>
-      </c>
-      <c r="E134" t="n">
-        <v>4</v>
-      </c>
-      <c r="F134" t="b">
-        <v>1</v>
-      </c>
-      <c r="G134" t="n">
-        <v>1</v>
-      </c>
-      <c r="H134" t="n">
-        <v>4</v>
-      </c>
-      <c r="I134" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Wyatt</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Teller</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>RG</t>
-        </is>
-      </c>
-      <c r="D135" t="n">
-        <v>7</v>
-      </c>
-      <c r="E135" t="n">
-        <v>4</v>
-      </c>
-      <c r="F135" t="b">
-        <v>1</v>
-      </c>
-      <c r="G135" t="n">
-        <v>1</v>
-      </c>
-      <c r="H135" t="n">
-        <v>5</v>
-      </c>
-      <c r="I135" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Adam</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Thielen</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>WR</t>
-        </is>
-      </c>
-      <c r="D136" t="n">
-        <v>4</v>
-      </c>
-      <c r="E136" t="n">
-        <v>2</v>
-      </c>
-      <c r="F136" t="b">
-        <v>1</v>
-      </c>
-      <c r="G136" t="n">
-        <v>1</v>
-      </c>
-      <c r="H136" t="n">
-        <v>3</v>
-      </c>
-      <c r="I136" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>Michael</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Thomas</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>WR</t>
-        </is>
-      </c>
-      <c r="D137" t="n">
-        <v>3</v>
-      </c>
-      <c r="E137" t="n">
-        <v>2</v>
-      </c>
-      <c r="F137" t="b">
-        <v>1</v>
-      </c>
-      <c r="G137" t="n">
-        <v>1</v>
-      </c>
-      <c r="H137" t="n">
-        <v>2</v>
-      </c>
-      <c r="I137" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>Jalen</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Thompson</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>FS</t>
-        </is>
-      </c>
-      <c r="D138" t="n">
-        <v>5</v>
-      </c>
-      <c r="E138" t="n">
-        <v>3</v>
-      </c>
-      <c r="F138" t="b">
-        <v>1</v>
-      </c>
-      <c r="G138" t="n">
-        <v>1</v>
-      </c>
-      <c r="H138" t="n">
-        <v>4</v>
-      </c>
-      <c r="I138" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>Shaq</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Thompson</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>MLB</t>
-        </is>
-      </c>
-      <c r="D139" t="n">
-        <v>3</v>
-      </c>
-      <c r="E139" t="n">
-        <v>2</v>
-      </c>
-      <c r="F139" t="b">
-        <v>1</v>
-      </c>
-      <c r="G139" t="n">
-        <v>1</v>
-      </c>
-      <c r="H139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I139" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>Juan</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Thornhill</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>FS</t>
-        </is>
-      </c>
-      <c r="D140" t="n">
-        <v>4</v>
-      </c>
-      <c r="E140" t="n">
-        <v>2</v>
-      </c>
-      <c r="F140" t="b">
-        <v>1</v>
-      </c>
-      <c r="G140" t="n">
-        <v>1</v>
-      </c>
-      <c r="H140" t="n">
-        <v>3</v>
-      </c>
-      <c r="I140" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>Dalvin</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Tomlinson</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>DT</t>
-        </is>
-      </c>
-      <c r="D141" t="n">
-        <v>5</v>
-      </c>
-      <c r="E141" t="n">
-        <v>2</v>
-      </c>
-      <c r="F141" t="b">
-        <v>1</v>
-      </c>
-      <c r="G141" t="n">
-        <v>1</v>
-      </c>
-      <c r="H141" t="n">
-        <v>4</v>
-      </c>
-      <c r="I141" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>Laken</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Tomlinson</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>LG</t>
-        </is>
-      </c>
-      <c r="D142" t="n">
-        <v>4</v>
-      </c>
-      <c r="E142" t="n">
-        <v>3</v>
-      </c>
-      <c r="F142" t="b">
-        <v>1</v>
-      </c>
-      <c r="G142" t="n">
-        <v>1</v>
-      </c>
-      <c r="H142" t="n">
-        <v>3</v>
-      </c>
-      <c r="I142" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>C.J.</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Uzomah</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>TE</t>
-        </is>
-      </c>
-      <c r="D143" t="n">
-        <v>4</v>
-      </c>
-      <c r="E143" t="n">
-        <v>3</v>
-      </c>
-      <c r="F143" t="b">
-        <v>1</v>
-      </c>
-      <c r="G143" t="n">
-        <v>1</v>
-      </c>
-      <c r="H143" t="n">
-        <v>3</v>
-      </c>
-      <c r="I143" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>Halapoulivaati</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Vaitai</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>RG</t>
-        </is>
-      </c>
-      <c r="D144" t="n">
-        <v>6</v>
-      </c>
-      <c r="E144" t="n">
-        <v>6</v>
-      </c>
-      <c r="F144" t="b">
-        <v>1</v>
-      </c>
-      <c r="G144" t="n">
-        <v>1</v>
-      </c>
-      <c r="H144" t="n">
-        <v>5</v>
-      </c>
-      <c r="I144" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>Vita</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Vea</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>DT</t>
-        </is>
-      </c>
-      <c r="D145" t="n">
-        <v>7</v>
-      </c>
-      <c r="E145" t="n">
-        <v>4</v>
-      </c>
-      <c r="F145" t="b">
-        <v>1</v>
-      </c>
-      <c r="G145" t="n">
-        <v>1</v>
-      </c>
-      <c r="H145" t="n">
-        <v>6</v>
-      </c>
-      <c r="I145" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>Tracy</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Walker III</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>FS</t>
-        </is>
-      </c>
-      <c r="D146" t="n">
-        <v>4</v>
-      </c>
-      <c r="E146" t="n">
-        <v>3</v>
-      </c>
-      <c r="F146" t="b">
-        <v>1</v>
-      </c>
-      <c r="G146" t="n">
-        <v>1</v>
-      </c>
-      <c r="H146" t="n">
-        <v>3</v>
-      </c>
-      <c r="I146" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>Charvarius</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Ward</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>CB</t>
-        </is>
-      </c>
-      <c r="D147" t="n">
-        <v>4</v>
-      </c>
-      <c r="E147" t="n">
-        <v>3</v>
-      </c>
-      <c r="F147" t="b">
-        <v>1</v>
-      </c>
-      <c r="G147" t="n">
-        <v>1</v>
-      </c>
-      <c r="H147" t="n">
-        <v>3</v>
-      </c>
-      <c r="I147" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>Fred</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Warner</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>MLB</t>
-        </is>
-      </c>
-      <c r="D148" t="n">
-        <v>7</v>
-      </c>
-      <c r="E148" t="n">
-        <v>4</v>
-      </c>
-      <c r="F148" t="b">
-        <v>1</v>
-      </c>
-      <c r="G148" t="n">
-        <v>1</v>
-      </c>
-      <c r="H148" t="n">
-        <v>6</v>
-      </c>
-      <c r="I148" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>Deshaun</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Watson</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>QB</t>
-        </is>
-      </c>
-      <c r="D149" t="n">
-        <v>6</v>
-      </c>
-      <c r="E149" t="n">
-        <v>3</v>
-      </c>
-      <c r="F149" t="b">
-        <v>1</v>
-      </c>
-      <c r="G149" t="n">
-        <v>1</v>
-      </c>
-      <c r="H149" t="n">
-        <v>5</v>
-      </c>
-      <c r="I149" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>Jordan</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>Whitehead</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>FS</t>
-        </is>
-      </c>
-      <c r="D150" t="n">
-        <v>3</v>
-      </c>
-      <c r="E150" t="n">
-        <v>3</v>
-      </c>
-      <c r="F150" t="b">
-        <v>1</v>
-      </c>
-      <c r="G150" t="n">
-        <v>1</v>
-      </c>
-      <c r="H150" t="n">
-        <v>2</v>
-      </c>
-      <c r="I150" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>Jamaal</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Williams</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>HB</t>
-        </is>
-      </c>
-      <c r="D151" t="n">
-        <v>4</v>
-      </c>
-      <c r="E151" t="n">
-        <v>2</v>
-      </c>
-      <c r="F151" t="b">
-        <v>1</v>
-      </c>
-      <c r="G151" t="n">
-        <v>1</v>
-      </c>
-      <c r="H151" t="n">
-        <v>3</v>
-      </c>
-      <c r="I151" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>Leonard</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Williams</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>DT</t>
-        </is>
-      </c>
-      <c r="D152" t="n">
-        <v>4</v>
-      </c>
-      <c r="E152" t="n">
-        <v>4</v>
-      </c>
-      <c r="F152" t="b">
-        <v>1</v>
-      </c>
-      <c r="G152" t="n">
-        <v>1</v>
-      </c>
-      <c r="H152" t="n">
-        <v>3</v>
-      </c>
-      <c r="I152" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>Quincy</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Williams</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>ROLB</t>
-        </is>
-      </c>
-      <c r="D153" t="n">
-        <v>4</v>
-      </c>
-      <c r="E153" t="n">
-        <v>2</v>
-      </c>
-      <c r="F153" t="b">
-        <v>1</v>
-      </c>
-      <c r="G153" t="n">
-        <v>1</v>
-      </c>
-      <c r="H153" t="n">
-        <v>3</v>
-      </c>
-      <c r="I153" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>Cedrick</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Wilson Jr</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>WR</t>
-        </is>
-      </c>
-      <c r="D154" t="n">
-        <v>2</v>
-      </c>
-      <c r="E154" t="n">
-        <v>2</v>
-      </c>
-      <c r="F154" t="b">
-        <v>1</v>
-      </c>
-      <c r="G154" t="n">
-        <v>1</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>Donovan</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Wilson</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>SS</t>
-        </is>
-      </c>
-      <c r="D155" t="n">
-        <v>4</v>
-      </c>
-      <c r="E155" t="n">
-        <v>2</v>
-      </c>
-      <c r="F155" t="b">
-        <v>1</v>
-      </c>
-      <c r="G155" t="n">
-        <v>1</v>
-      </c>
-      <c r="H155" t="n">
-        <v>3</v>
-      </c>
-      <c r="I155" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>Jameis</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Winston</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>QB</t>
-        </is>
-      </c>
-      <c r="D156" t="n">
-        <v>2</v>
-      </c>
-      <c r="E156" t="n">
-        <v>2</v>
-      </c>
-      <c r="F156" t="b">
-        <v>1</v>
-      </c>
-      <c r="G156" t="n">
-        <v>1</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>Kevin</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Zeitler</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>RG</t>
-        </is>
-      </c>
-      <c r="D157" t="n">
-        <v>4</v>
-      </c>
-      <c r="E157" t="n">
-        <v>4</v>
-      </c>
-      <c r="F157" t="b">
-        <v>1</v>
-      </c>
-      <c r="G157" t="n">
-        <v>1</v>
-      </c>
-      <c r="H157" t="n">
-        <v>3</v>
-      </c>
-      <c r="I157" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
